--- a/Charts_Dataset.xlsx
+++ b/Charts_Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C087D109-5F87-4B2A-9554-7DB23B108B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E880FD-FB0D-4649-8DC0-F2C546A91682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{03CEABDE-3C67-4836-9FDD-609F2D7E7F08}"/>
   </bookViews>
@@ -665,7 +665,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -832,7 +831,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sales!$A$6</c15:sqref>
@@ -967,7 +966,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-FEB2-4EAB-90AA-6C73A287F1ED}"/>
                   </c:ext>
@@ -980,7 +979,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sales!$A$7</c15:sqref>
@@ -1115,7 +1114,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-FEB2-4EAB-90AA-6C73A287F1ED}"/>
                   </c:ext>
@@ -1128,7 +1127,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sales!$A$9</c15:sqref>
@@ -1265,7 +1264,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-FEB2-4EAB-90AA-6C73A287F1ED}"/>
                   </c:ext>
@@ -1278,7 +1277,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sales!$A$10</c15:sqref>
@@ -1415,7 +1414,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-FEB2-4EAB-90AA-6C73A287F1ED}"/>
                   </c:ext>
@@ -3134,7 +3133,17 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.850820357314832E-2"/>
+          <c:y val="0.17178635697208652"/>
+          <c:w val="0.86830698258628169"/>
+          <c:h val="0.5397018880114165"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
@@ -5264,7 +5273,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-D894-47F9-97C7-071EB0540692}"/>
                   </c:ext>
@@ -5412,7 +5421,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-D894-47F9-97C7-071EB0540692}"/>
                   </c:ext>
@@ -5562,7 +5571,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-D894-47F9-97C7-071EB0540692}"/>
                   </c:ext>
@@ -5712,7 +5721,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-D894-47F9-97C7-071EB0540692}"/>
                   </c:ext>
@@ -6701,7 +6710,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-7620-4563-96C8-2F32B130CC14}"/>
                   </c:ext>
@@ -6849,7 +6858,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-7620-4563-96C8-2F32B130CC14}"/>
                   </c:ext>
@@ -6999,7 +7008,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-7620-4563-96C8-2F32B130CC14}"/>
                   </c:ext>
@@ -7149,7 +7158,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-7620-4563-96C8-2F32B130CC14}"/>
                   </c:ext>
@@ -10148,16 +10157,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:rowOff>25513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10186,16 +10195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202406</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>147977</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>59530</xdr:rowOff>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>592931</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>489858</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10224,16 +10233,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>39122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>88107</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>512988</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>115322</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10262,16 +10271,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>585108</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11056,7 +11065,7 @@
   <dimension ref="U22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
